--- a/Preference profiles/Preference matrix.xlsx
+++ b/Preference profiles/Preference matrix.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Chips</t>
   </si>
@@ -42,17 +42,53 @@
     <t>Personal factor</t>
   </si>
   <si>
-    <t>Jimmy</t>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Drinks</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Invitation</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Cleanup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jimmy preferences </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -76,13 +112,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -412,15 +464,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:E14"/>
+  <dimension ref="A4:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="24.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -431,7 +486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -445,7 +500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -453,13 +508,13 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -473,7 +528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -481,15 +536,15 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -501,17 +556,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="B11">
-        <f>$B$10-B5</f>
+        <f>ABS($B$10-B5)</f>
         <v>2</v>
       </c>
       <c r="C11">
-        <f>$C$10-C5</f>
+        <f>ABS($C$10-C5)</f>
         <v>0</v>
       </c>
       <c r="D11">
-        <f>$D$10-D5</f>
+        <f>ABS($D$10-D5)</f>
         <v>2</v>
       </c>
       <c r="E11">
@@ -519,32 +574,32 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="B12">
-        <f t="shared" ref="B12:B14" si="0">$B$10-B6</f>
+        <f t="shared" ref="B12:B14" si="0">ABS($B$10-B6)</f>
         <v>2</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:C14" si="1">$C$10-C6</f>
-        <v>0</v>
+        <f t="shared" ref="C12:C14" si="1">ABS($C$10-C6)</f>
+        <v>2</v>
       </c>
       <c r="D12">
-        <f t="shared" ref="D12:D14" si="2">$D$10-D6</f>
+        <f t="shared" ref="D12:D14" si="2">ABS($D$10-D6)</f>
         <v>1</v>
       </c>
       <c r="E12">
         <f t="shared" ref="E12:E14" si="3">SUM(B12:D12)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="B13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <f t="shared" si="2"/>
@@ -552,17 +607,17 @@
       </c>
       <c r="E13">
         <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="B14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
@@ -570,11 +625,150 @@
       </c>
       <c r="E14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <f>SUM(B16:D16)</f>
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <f>E16/SUM($E$16:$E$21)</f>
+        <v>0.25806451612903225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <f>SUM(B17:D17)</f>
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ref="F17:F21" si="4">E17/SUM($E$16:$E$21)</f>
+        <v>0.12903225806451613</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ref="E18:E21" si="5">SUM(B18:D18)</f>
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="4"/>
+        <v>0.16129032258064516</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="4"/>
+        <v>0.12903225806451613</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="4"/>
+        <v>0.16129032258064516</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="4"/>
+        <v>0.16129032258064516</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="F22">
+        <f>SUM(F16:F21)</f>
+        <v>0.99999999999999989</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Preference profiles/Preference matrix.xlsx
+++ b/Preference profiles/Preference matrix.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="35">
   <si>
     <t>Chips</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Cost</t>
   </si>
   <si>
-    <t>Personal factor</t>
-  </si>
-  <si>
     <t>Food</t>
   </si>
   <si>
@@ -60,7 +57,73 @@
     <t>Cleanup</t>
   </si>
   <si>
-    <t xml:space="preserve">Jimmy preferences </t>
+    <t>Categorie</t>
+  </si>
+  <si>
+    <t>Beer only</t>
+  </si>
+  <si>
+    <t>Handmade cocktails</t>
+  </si>
+  <si>
+    <t>Non-alcoholic</t>
+  </si>
+  <si>
+    <t>Your dorm</t>
+  </si>
+  <si>
+    <t>Party room</t>
+  </si>
+  <si>
+    <t>Ballroom</t>
+  </si>
+  <si>
+    <t>Photo</t>
+  </si>
+  <si>
+    <t>Custom handmade</t>
+  </si>
+  <si>
+    <t>Custom printed</t>
+  </si>
+  <si>
+    <t>Plain</t>
+  </si>
+  <si>
+    <t>Party tent</t>
+  </si>
+  <si>
+    <t>MP3</t>
+  </si>
+  <si>
+    <t>Band</t>
+  </si>
+  <si>
+    <t>Specialized materials</t>
+  </si>
+  <si>
+    <t>Special equipment</t>
+  </si>
+  <si>
+    <t>Hired help</t>
+  </si>
+  <si>
+    <t>Water and soap</t>
+  </si>
+  <si>
+    <t>Categories</t>
+  </si>
+  <si>
+    <t>Enter criteria here</t>
+  </si>
+  <si>
+    <t>How much do you want to do in this criteria? The more you are willing to do, the higher the number. For me I am willing to spend a lot of time but little money.</t>
+  </si>
+  <si>
+    <t>The values below this cell indicate the weight</t>
+  </si>
+  <si>
+    <t>Jimmy</t>
   </si>
 </sst>
 </file>
@@ -112,7 +175,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -122,19 +185,89 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="41">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -464,309 +597,841 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:F22"/>
+  <dimension ref="A2:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6">
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="2" spans="1:4">
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1">
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="B11">
-        <f>ABS($B$10-B5)</f>
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <f>ABS($C$10-C5)</f>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2"/>
+      <c r="B33" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="105">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D11">
-        <f>ABS($D$10-D5)</f>
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <f>SUM(B11:D11)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="B12">
-        <f t="shared" ref="B12:B14" si="0">ABS($B$10-B6)</f>
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <f t="shared" ref="C12:C14" si="1">ABS($C$10-C6)</f>
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <f t="shared" ref="D12:D14" si="2">ABS($D$10-D6)</f>
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <f t="shared" ref="E12:E14" si="3">SUM(B12:D12)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="B13">
-        <f t="shared" si="0"/>
+      <c r="C35" s="1">
+        <f>ABS($C$34-C5)</f>
+        <v>2</v>
+      </c>
+      <c r="D35" s="1">
+        <f>ABS($D$34-D5)</f>
         <v>0</v>
       </c>
-      <c r="C13">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="2"/>
+      <c r="F35" s="1">
+        <f>SUM(C35:D35)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2"/>
+      <c r="B36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <f>ABS($C$34-C6)</f>
+        <v>2</v>
+      </c>
+      <c r="D36" s="1">
+        <f>ABS($D$34-D6)</f>
+        <v>2</v>
+      </c>
+      <c r="F36" s="1">
+        <f>SUM(C36:D36)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2"/>
+      <c r="B37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="1">
+        <f>ABS($C$34-C7)</f>
         <v>0</v>
       </c>
-      <c r="E13">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="1"/>
+      <c r="D37" s="1">
+        <f>ABS($D$34-D7)</f>
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <f>SUM(C37:D37)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2"/>
+      <c r="B38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1">
+        <f>ABS($C$34-C8)</f>
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
+        <f>ABS($D$34-D8)</f>
         <v>0</v>
       </c>
-      <c r="D14">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
+      <c r="F38" s="1">
+        <f>SUM(C38:D38)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <f>SUM(B16:D16)</f>
+      <c r="B39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="1">
+        <f>ABS($C$34-C9)</f>
+        <v>3</v>
+      </c>
+      <c r="D39" s="1">
+        <f>ABS($D$34-D9)</f>
+        <v>1</v>
+      </c>
+      <c r="F39" s="1">
+        <f>SUM(C39:D39)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2"/>
+      <c r="B40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="1">
+        <f>ABS($C$34-C10)</f>
+        <v>3</v>
+      </c>
+      <c r="D40" s="1">
+        <f>ABS($D$34-D10)</f>
+        <v>1</v>
+      </c>
+      <c r="F40" s="1">
+        <f>SUM(C40:D40)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2"/>
+      <c r="B41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="1">
+        <f>ABS($C$34-C11)</f>
+        <v>3</v>
+      </c>
+      <c r="D41" s="1">
+        <f>ABS($D$34-D11)</f>
+        <v>1</v>
+      </c>
+      <c r="F41" s="1">
+        <f>SUM(C41:D41)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="2"/>
+      <c r="B42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="1">
+        <f>ABS($C$34-C12)</f>
+        <v>3</v>
+      </c>
+      <c r="D42" s="1">
+        <f>ABS($D$34-D12)</f>
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <f>SUM(C42:D42)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F16">
-        <f>E16/SUM($E$16:$E$21)</f>
-        <v>0.25806451612903225</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
+      <c r="B43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="1">
+        <f>ABS($C$34-C13)</f>
+        <v>3</v>
+      </c>
+      <c r="D43" s="1">
+        <f>ABS($D$34-D13)</f>
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
+        <f>SUM(C43:D43)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2"/>
+      <c r="B44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="1">
+        <f>ABS($C$34-C14)</f>
+        <v>3</v>
+      </c>
+      <c r="D44" s="1">
+        <f>ABS($D$34-D14)</f>
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
+        <f>SUM(C44:D44)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2"/>
+      <c r="B45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="1">
+        <f>ABS($C$34-C15)</f>
+        <v>3</v>
+      </c>
+      <c r="D45" s="1">
+        <f>ABS($D$34-D15)</f>
+        <v>1</v>
+      </c>
+      <c r="F45" s="1">
+        <f>SUM(C45:D45)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2"/>
+      <c r="B46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="1">
+        <f>ABS($C$34-C16)</f>
+        <v>3</v>
+      </c>
+      <c r="D46" s="1">
+        <f>ABS($D$34-D16)</f>
+        <v>1</v>
+      </c>
+      <c r="F46" s="1">
+        <f>SUM(C46:D46)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="1">
+        <f>ABS($C$34-C17)</f>
+        <v>3</v>
+      </c>
+      <c r="D47" s="1">
+        <f>ABS($D$34-D17)</f>
+        <v>1</v>
+      </c>
+      <c r="F47" s="1">
+        <f>SUM(C47:D47)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="2"/>
+      <c r="B48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="1">
+        <f>ABS($C$34-C18)</f>
+        <v>3</v>
+      </c>
+      <c r="D48" s="1">
+        <f>ABS($D$34-D18)</f>
+        <v>1</v>
+      </c>
+      <c r="F48" s="1">
+        <f>SUM(C48:D48)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="2"/>
+      <c r="B49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" s="1">
+        <f>ABS($C$34-C19)</f>
+        <v>3</v>
+      </c>
+      <c r="D49" s="1">
+        <f>ABS($D$34-D19)</f>
+        <v>1</v>
+      </c>
+      <c r="F49" s="1">
+        <f>SUM(C49:D49)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="2"/>
+      <c r="B50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="1">
+        <f>ABS($C$34-C20)</f>
+        <v>3</v>
+      </c>
+      <c r="D50" s="1">
+        <f>ABS($D$34-D20)</f>
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
+        <f>SUM(C50:D50)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="1">
+        <f>ABS($C$34-C21)</f>
+        <v>3</v>
+      </c>
+      <c r="D51" s="1">
+        <f>ABS($D$34-D21)</f>
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
+        <f>SUM(C51:D51)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="2"/>
+      <c r="B52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="1">
+        <f>ABS($C$34-C22)</f>
+        <v>3</v>
+      </c>
+      <c r="D52" s="1">
+        <f>ABS($D$34-D22)</f>
+        <v>1</v>
+      </c>
+      <c r="F52" s="1">
+        <f>SUM(C52:D52)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="2"/>
+      <c r="B53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="1">
+        <f>ABS($C$34-C23)</f>
+        <v>3</v>
+      </c>
+      <c r="D53" s="1">
+        <f>ABS($D$34-D23)</f>
+        <v>1</v>
+      </c>
+      <c r="F53" s="1">
+        <f>SUM(C53:D53)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" s="1">
+        <f>ABS($C$34-C24)</f>
+        <v>3</v>
+      </c>
+      <c r="D54" s="1">
+        <f>ABS($D$34-D24)</f>
+        <v>1</v>
+      </c>
+      <c r="F54" s="1">
+        <f>SUM(C54:D54)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="2"/>
+      <c r="B55" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" s="1">
+        <f>ABS($C$34-C25)</f>
+        <v>3</v>
+      </c>
+      <c r="D55" s="1">
+        <f>ABS($D$34-D25)</f>
+        <v>1</v>
+      </c>
+      <c r="F55" s="1">
+        <f>SUM(C55:D55)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="2"/>
+      <c r="B56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" s="1">
+        <f>ABS($C$34-C26)</f>
+        <v>3</v>
+      </c>
+      <c r="D56" s="1">
+        <f>ABS($D$34-D26)</f>
+        <v>1</v>
+      </c>
+      <c r="F56" s="1">
+        <f>SUM(C56:D56)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="2"/>
+      <c r="B57" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="1">
+        <f>ABS($C$34-C27)</f>
+        <v>3</v>
+      </c>
+      <c r="D57" s="1">
+        <f>ABS($D$34-D27)</f>
+        <v>1</v>
+      </c>
+      <c r="F57" s="1">
+        <f>SUM(C57:D57)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="1">
+        <v>3</v>
+      </c>
+      <c r="D58" s="1">
+        <v>3</v>
+      </c>
+      <c r="E58" s="1">
+        <f>SUM(C58:D58)</f>
+        <v>6</v>
+      </c>
+      <c r="F58" s="1">
+        <f>E58/SUM($E$58:$E$63)</f>
+        <v>0.2608695652173913</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="2"/>
+      <c r="B59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="1">
+        <v>2</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+      <c r="E59" s="1">
+        <f>SUM(C59:D59)</f>
+        <v>3</v>
+      </c>
+      <c r="F59" s="1">
+        <f>E59/SUM($E$58:$E$63)</f>
+        <v>0.13043478260869565</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="2"/>
+      <c r="B60" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <f>SUM(B17:D17)</f>
-        <v>4</v>
-      </c>
-      <c r="F17">
-        <f t="shared" ref="F17:F21" si="4">E17/SUM($E$16:$E$21)</f>
-        <v>0.12903225806451613</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
+      <c r="C60" s="1">
+        <v>2</v>
+      </c>
+      <c r="D60" s="1">
+        <v>2</v>
+      </c>
+      <c r="E60" s="1">
+        <f>SUM(C60:D60)</f>
+        <v>4</v>
+      </c>
+      <c r="F60" s="1">
+        <f>E60/SUM($E$58:$E$63)</f>
+        <v>0.17391304347826086</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="2"/>
+      <c r="B61" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <f t="shared" ref="E18:E21" si="5">SUM(B18:D18)</f>
-        <v>5</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="4"/>
-        <v>0.16129032258064516</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
+      <c r="C61" s="1">
+        <v>1</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1</v>
+      </c>
+      <c r="E61" s="1">
+        <f>SUM(C61:D61)</f>
+        <v>2</v>
+      </c>
+      <c r="F61" s="1">
+        <f>E61/SUM($E$58:$E$63)</f>
+        <v>8.6956521739130432E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="2"/>
+      <c r="B62" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="4"/>
-        <v>0.12903225806451613</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
+      <c r="C62" s="1">
+        <v>2</v>
+      </c>
+      <c r="D62" s="1">
+        <v>2</v>
+      </c>
+      <c r="E62" s="1">
+        <f>SUM(C62:D62)</f>
+        <v>4</v>
+      </c>
+      <c r="F62" s="1">
+        <f>E62/SUM($E$58:$E$63)</f>
+        <v>0.17391304347826086</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="2"/>
+      <c r="B63" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="4"/>
-        <v>0.16129032258064516</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="4"/>
-        <v>0.16129032258064516</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="F22">
-        <f>SUM(F16:F21)</f>
-        <v>0.99999999999999989</v>
+      <c r="C63" s="1">
+        <v>2</v>
+      </c>
+      <c r="D63" s="1">
+        <v>2</v>
+      </c>
+      <c r="E63" s="1">
+        <f>SUM(C63:D63)</f>
+        <v>4</v>
+      </c>
+      <c r="F63" s="1">
+        <f>E63/SUM($E$58:$E$63)</f>
+        <v>0.17391304347826086</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="F64" s="1">
+        <f>SUM(F58:F63)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A27"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/Preference profiles/Preference matrix.xlsx
+++ b/Preference profiles/Preference matrix.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
   <si>
     <t>Chips</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>Jimmy</t>
+  </si>
+  <si>
+    <t>Peronal-factor</t>
+  </si>
+  <si>
+    <t>DJ</t>
   </si>
 </sst>
 </file>
@@ -218,13 +224,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="41">
@@ -599,30 +608,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="36" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="13.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="C2" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1">
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="C3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -632,8 +646,11 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -646,8 +663,11 @@
       <c r="D5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>1</v>
@@ -658,8 +678,11 @@
       <c r="D6" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
         <v>2</v>
@@ -670,8 +693,11 @@
       <c r="D7" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
         <v>3</v>
@@ -682,161 +708,368 @@
       <c r="D8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="2"/>
       <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="2"/>
       <c r="B20" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="2"/>
       <c r="B22" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" s="1">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>36</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="2"/>
       <c r="B25" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="2"/>
       <c r="B26" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="2"/>
       <c r="B27" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" s="1">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="2"/>
       <c r="B29" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" s="1">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="2"/>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" s="1">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="2"/>
       <c r="B31" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="2"/>
       <c r="B32" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -844,6 +1077,12 @@
       <c r="B33" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C33" s="1">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="105">
       <c r="A34" s="1" t="s">
@@ -855,6 +1094,9 @@
       <c r="D34" s="1">
         <v>1</v>
       </c>
+      <c r="E34" s="1">
+        <v>2</v>
+      </c>
       <c r="F34" s="1" t="s">
         <v>33</v>
       </c>
@@ -867,16 +1109,20 @@
         <v>0</v>
       </c>
       <c r="C35" s="1">
-        <f>ABS($C$34-C5)</f>
+        <f t="shared" ref="C35:C57" si="0">ABS($C$34-C5)</f>
         <v>2</v>
       </c>
       <c r="D35" s="1">
-        <f>ABS($D$34-D5)</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="1">
-        <f>SUM(C35:D35)</f>
-        <v>2</v>
+        <f t="shared" ref="D35:E57" si="1">ABS($D$34-D5)</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <f>ABS($E$34-E5)</f>
+        <v>1</v>
+      </c>
+      <c r="F35" s="3">
+        <f>1/SUM(C35:E35)</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -885,16 +1131,20 @@
         <v>1</v>
       </c>
       <c r="C36" s="1">
-        <f>ABS($C$34-C6)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D36" s="1">
-        <f>ABS($D$34-D6)</f>
-        <v>2</v>
-      </c>
-      <c r="F36" s="1">
-        <f>SUM(C36:D36)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" ref="E36:E57" si="2">ABS($E$34-E6)</f>
+        <v>1</v>
+      </c>
+      <c r="F36" s="3">
+        <f t="shared" ref="F36:F57" si="3">1/SUM(C36:E36)</f>
+        <v>0.2</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -903,16 +1153,20 @@
         <v>2</v>
       </c>
       <c r="C37" s="1">
-        <f>ABS($C$34-C7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D37" s="1">
-        <f>ABS($D$34-D7)</f>
-        <v>1</v>
-      </c>
-      <c r="F37" s="1">
-        <f>SUM(C37:D37)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F37" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -921,15 +1175,19 @@
         <v>3</v>
       </c>
       <c r="C38" s="1">
-        <f>ABS($C$34-C8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D38" s="1">
-        <f>ABS($D$34-D8)</f>
-        <v>0</v>
-      </c>
-      <c r="F38" s="1">
-        <f>SUM(C38:D38)</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -941,16 +1199,20 @@
         <v>15</v>
       </c>
       <c r="C39" s="1">
-        <f>ABS($C$34-C9)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="D39" s="1">
-        <f>ABS($D$34-D9)</f>
-        <v>1</v>
-      </c>
-      <c r="F39" s="1">
-        <f>SUM(C39:D39)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -959,16 +1221,20 @@
         <v>13</v>
       </c>
       <c r="C40" s="1">
-        <f>ABS($C$34-C10)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="D40" s="1">
-        <f>ABS($D$34-D10)</f>
-        <v>1</v>
-      </c>
-      <c r="F40" s="1">
-        <f>SUM(C40:D40)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F40" s="3">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -977,16 +1243,20 @@
         <v>14</v>
       </c>
       <c r="C41" s="1">
-        <f>ABS($C$34-C11)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="D41" s="1">
-        <f>ABS($D$34-D11)</f>
-        <v>1</v>
-      </c>
-      <c r="F41" s="1">
-        <f>SUM(C41:D41)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F41" s="3">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -995,16 +1265,20 @@
         <v>3</v>
       </c>
       <c r="C42" s="1">
-        <f>ABS($C$34-C12)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D42" s="1">
-        <f>ABS($D$34-D12)</f>
-        <v>1</v>
-      </c>
-      <c r="F42" s="1">
-        <f>SUM(C42:D42)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1015,16 +1289,20 @@
         <v>23</v>
       </c>
       <c r="C43" s="1">
-        <f>ABS($C$34-C13)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D43" s="1">
-        <f>ABS($D$34-D13)</f>
-        <v>1</v>
-      </c>
-      <c r="F43" s="1">
-        <f>SUM(C43:D43)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E43" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F43" s="3">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1033,16 +1311,20 @@
         <v>16</v>
       </c>
       <c r="C44" s="1">
-        <f>ABS($C$34-C14)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="D44" s="1">
-        <f>ABS($D$34-D14)</f>
-        <v>1</v>
-      </c>
-      <c r="F44" s="1">
-        <f>SUM(C44:D44)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F44" s="3">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1051,16 +1333,20 @@
         <v>17</v>
       </c>
       <c r="C45" s="1">
-        <f>ABS($C$34-C15)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="D45" s="1">
-        <f>ABS($D$34-D15)</f>
-        <v>1</v>
-      </c>
-      <c r="F45" s="1">
-        <f>SUM(C45:D45)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E45" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1069,16 +1355,20 @@
         <v>18</v>
       </c>
       <c r="C46" s="1">
-        <f>ABS($C$34-C16)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D46" s="1">
-        <f>ABS($D$34-D16)</f>
-        <v>1</v>
-      </c>
-      <c r="F46" s="1">
-        <f>SUM(C46:D46)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E46" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F46" s="3">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1089,16 +1379,20 @@
         <v>22</v>
       </c>
       <c r="C47" s="1">
-        <f>ABS($C$34-C17)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="D47" s="1">
-        <f>ABS($D$34-D17)</f>
-        <v>1</v>
-      </c>
-      <c r="F47" s="1">
-        <f>SUM(C47:D47)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F47" s="3">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1107,16 +1401,20 @@
         <v>19</v>
       </c>
       <c r="C48" s="1">
-        <f>ABS($C$34-C18)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D48" s="1">
-        <f>ABS($D$34-D18)</f>
-        <v>1</v>
-      </c>
-      <c r="F48" s="1">
-        <f>SUM(C48:D48)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E48" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1125,16 +1423,20 @@
         <v>20</v>
       </c>
       <c r="C49" s="1">
-        <f>ABS($C$34-C19)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="D49" s="1">
-        <f>ABS($D$34-D19)</f>
-        <v>1</v>
-      </c>
-      <c r="F49" s="1">
-        <f>SUM(C49:D49)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E49" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F49" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1143,16 +1445,20 @@
         <v>21</v>
       </c>
       <c r="C50" s="1">
-        <f>ABS($C$34-C20)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D50" s="1">
-        <f>ABS($D$34-D20)</f>
-        <v>1</v>
-      </c>
-      <c r="F50" s="1">
-        <f>SUM(C50:D50)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E50" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F50" s="3">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1163,16 +1469,20 @@
         <v>24</v>
       </c>
       <c r="C51" s="1">
-        <f>ABS($C$34-C21)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="D51" s="1">
-        <f>ABS($D$34-D21)</f>
-        <v>1</v>
-      </c>
-      <c r="F51" s="1">
-        <f>SUM(C51:D51)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1181,16 +1491,20 @@
         <v>25</v>
       </c>
       <c r="C52" s="1">
-        <f>ABS($C$34-C22)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="D52" s="1">
-        <f>ABS($D$34-D22)</f>
-        <v>1</v>
-      </c>
-      <c r="F52" s="1">
-        <f>SUM(C52:D52)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E52" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F52" s="3">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1199,16 +1513,20 @@
         <v>10</v>
       </c>
       <c r="C53" s="1">
-        <f>ABS($C$34-C23)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="D53" s="1">
-        <f>ABS($D$34-D23)</f>
-        <v>1</v>
-      </c>
-      <c r="F53" s="1">
-        <f>SUM(C53:D53)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E53" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F53" s="3">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1219,16 +1537,20 @@
         <v>29</v>
       </c>
       <c r="C54" s="1">
-        <f>ABS($C$34-C24)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="D54" s="1">
-        <f>ABS($D$34-D24)</f>
-        <v>1</v>
-      </c>
-      <c r="F54" s="1">
-        <f>SUM(C54:D54)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F54" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1237,16 +1559,20 @@
         <v>26</v>
       </c>
       <c r="C55" s="1">
-        <f>ABS($C$34-C25)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D55" s="1">
-        <f>ABS($D$34-D25)</f>
-        <v>1</v>
-      </c>
-      <c r="F55" s="1">
-        <f>SUM(C55:D55)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E55" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F55" s="3">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1255,16 +1581,20 @@
         <v>27</v>
       </c>
       <c r="C56" s="1">
-        <f>ABS($C$34-C26)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D56" s="1">
-        <f>ABS($D$34-D26)</f>
-        <v>1</v>
-      </c>
-      <c r="F56" s="1">
-        <f>SUM(C56:D56)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E56" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F56" s="3">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1273,16 +1603,20 @@
         <v>28</v>
       </c>
       <c r="C57" s="1">
-        <f>ABS($C$34-C27)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="D57" s="1">
-        <f>ABS($D$34-D27)</f>
-        <v>1</v>
-      </c>
-      <c r="F57" s="1">
-        <f>SUM(C57:D57)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E57" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F57" s="3">
+        <f t="shared" si="3"/>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1293,18 +1627,20 @@
         <v>6</v>
       </c>
       <c r="C58" s="1">
+        <f>C28</f>
         <v>3</v>
       </c>
       <c r="D58" s="1">
+        <f>D28</f>
         <v>3</v>
       </c>
       <c r="E58" s="1">
-        <f>SUM(C58:D58)</f>
+        <f t="shared" ref="E58:E63" si="4">SUM(C58:D58)</f>
         <v>6</v>
       </c>
-      <c r="F58" s="1">
-        <f>E58/SUM($E$58:$E$63)</f>
-        <v>0.2608695652173913</v>
+      <c r="F58" s="3">
+        <f t="shared" ref="F58:F63" si="5">E58/SUM($E$58:$E$63)</f>
+        <v>0.27272727272727271</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1313,18 +1649,20 @@
         <v>7</v>
       </c>
       <c r="C59" s="1">
+        <f t="shared" ref="C59:D63" si="6">C29</f>
         <v>2</v>
       </c>
       <c r="D59" s="1">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E59" s="1">
-        <f>SUM(C59:D59)</f>
-        <v>3</v>
-      </c>
-      <c r="F59" s="1">
-        <f>E59/SUM($E$58:$E$63)</f>
-        <v>0.13043478260869565</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="F59" s="3">
+        <f t="shared" si="5"/>
+        <v>0.13636363636363635</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1333,18 +1671,20 @@
         <v>8</v>
       </c>
       <c r="C60" s="1">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="D60" s="1">
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="E60" s="1">
-        <f>SUM(C60:D60)</f>
-        <v>4</v>
-      </c>
-      <c r="F60" s="1">
-        <f>E60/SUM($E$58:$E$63)</f>
-        <v>0.17391304347826086</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="F60" s="3">
+        <f t="shared" si="5"/>
+        <v>0.13636363636363635</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1353,18 +1693,20 @@
         <v>9</v>
       </c>
       <c r="C61" s="1">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D61" s="1">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E61" s="1">
-        <f>SUM(C61:D61)</f>
-        <v>2</v>
-      </c>
-      <c r="F61" s="1">
-        <f>E61/SUM($E$58:$E$63)</f>
-        <v>8.6956521739130432E-2</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F61" s="3">
+        <f t="shared" si="5"/>
+        <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1373,18 +1715,20 @@
         <v>10</v>
       </c>
       <c r="C62" s="1">
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="D62" s="1">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="E62" s="1">
-        <f>SUM(C62:D62)</f>
-        <v>4</v>
-      </c>
-      <c r="F62" s="1">
-        <f>E62/SUM($E$58:$E$63)</f>
-        <v>0.17391304347826086</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="F62" s="3">
+        <f t="shared" si="5"/>
+        <v>0.22727272727272727</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1393,18 +1737,20 @@
         <v>11</v>
       </c>
       <c r="C63" s="1">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="D63" s="1">
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="E63" s="1">
-        <f>SUM(C63:D63)</f>
-        <v>4</v>
-      </c>
-      <c r="F63" s="1">
-        <f>E63/SUM($E$58:$E$63)</f>
-        <v>0.17391304347826086</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="F63" s="3">
+        <f t="shared" si="5"/>
+        <v>0.13636363636363635</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1415,22 +1761,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="A51:A53"/>
     <mergeCell ref="A54:A57"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="C3:D3"/>
     <mergeCell ref="A58:A63"/>
-    <mergeCell ref="C2:D2"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:A27"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="A51:A53"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Preference profiles/Preference matrix.xlsx
+++ b/Preference profiles/Preference matrix.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Jimmy" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -181,8 +181,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -236,7 +238,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="41">
+  <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -257,6 +259,7 @@
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -277,6 +280,7 @@
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -606,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F64"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -622,46 +626,61 @@
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="1" spans="1:5">
+      <c r="C1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1">
-      <c r="C3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>35</v>
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -670,40 +689,42 @@
     <row r="6" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -713,212 +734,210 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1">
         <v>3</v>
       </c>
       <c r="E11" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="B12" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
       </c>
       <c r="D12" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A17" s="2"/>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
       </c>
       <c r="E18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2"/>
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A21" s="2"/>
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E21" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2"/>
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C22" s="1">
         <v>3</v>
@@ -931,91 +950,91 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="2"/>
+      <c r="A23" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="B23" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C23" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" s="1">
-        <v>3</v>
-      </c>
-      <c r="E23" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C24" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2"/>
       <c r="B25" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25" s="1">
         <v>2</v>
       </c>
       <c r="D25" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2"/>
       <c r="B26" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="2"/>
+      <c r="A27" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="B27" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C27" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" s="1">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="E27" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="A28" s="2"/>
       <c r="B28" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C28" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E28" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2"/>
       <c r="B29" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" s="1">
         <v>2</v>
@@ -1024,759 +1043,764 @@
         <v>1</v>
       </c>
       <c r="E29" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2"/>
       <c r="B30" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
       </c>
       <c r="E30" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2"/>
       <c r="B31" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C31" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2"/>
       <c r="B32" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C32" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" s="1">
-        <v>2</v>
-      </c>
-      <c r="E32" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="2"/>
-      <c r="B33" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="105">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C33" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="105">
-      <c r="A34" s="1" t="s">
-        <v>32</v>
+      <c r="E33" s="1">
+        <v>2</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="C34" s="1">
-        <v>3</v>
+        <f t="shared" ref="C34:C56" si="0">ABS($C$33-C4)</f>
+        <v>2</v>
       </c>
       <c r="D34" s="1">
-        <v>1</v>
+        <f>ABS($D$33-D4)</f>
+        <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>2</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>33</v>
+        <f>ABS($E$33-E4)</f>
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
+        <f>1/SUM(C34:E34)</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A35" s="2"/>
       <c r="B35" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" ref="C35:C57" si="0">ABS($C$34-C5)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" ref="D35:E57" si="1">ABS($D$34-D5)</f>
-        <v>0</v>
+        <f>ABS($D$33-D5)</f>
+        <v>2</v>
       </c>
       <c r="E35" s="1">
-        <f>ABS($E$34-E5)</f>
+        <f>ABS($E$33-E5)</f>
         <v>1</v>
       </c>
       <c r="F35" s="3">
         <f>1/SUM(C35:E35)</f>
-        <v>0.33333333333333331</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2"/>
       <c r="B36" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>ABS($D$33-D6)</f>
+        <v>1</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" ref="E36:E57" si="2">ABS($E$34-E6)</f>
+        <f>ABS($E$33-E6)</f>
         <v>1</v>
       </c>
       <c r="F36" s="3">
-        <f t="shared" ref="F36:F57" si="3">1/SUM(C36:E36)</f>
-        <v>0.2</v>
+        <f>1/SUM(C36:E36)</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2"/>
       <c r="B37" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>ABS($D$33-D7)</f>
+        <v>0</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>ABS($E$33-E7)</f>
+        <v>0</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" si="3"/>
+        <f>1/SUM(C37:E37)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D38" s="1">
+        <f>ABS($D$33-D8)</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <f>ABS($E$33-E8)</f>
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
+        <f>1/SUM(C38:E38)</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="2"/>
-      <c r="B38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D38" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E38" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="3">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A39" s="2"/>
       <c r="B39" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C39" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>ABS($D$33-D9)</f>
+        <v>1</v>
       </c>
       <c r="E39" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>ABS($E$33-E9)</f>
+        <v>1</v>
       </c>
       <c r="F39" s="3">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
+        <f>1/SUM(C39:E39)</f>
+        <v>0.25</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2"/>
       <c r="B40" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C40" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>ABS($D$33-D10)</f>
+        <v>2</v>
       </c>
       <c r="E40" s="1">
-        <f t="shared" si="2"/>
+        <f>ABS($E$33-E10)</f>
         <v>1</v>
       </c>
       <c r="F40" s="3">
-        <f t="shared" si="3"/>
-        <v>0.25</v>
+        <f>1/SUM(C40:E40)</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2"/>
       <c r="B41" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C41" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" si="1"/>
+        <f>ABS($D$33-D11)</f>
         <v>2</v>
       </c>
       <c r="E41" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>ABS($E$33-E11)</f>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
-        <f t="shared" si="3"/>
+        <f>1/SUM(C41:E41)</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="2"/>
+      <c r="A42" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="B42" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C42" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>ABS($D$33-D12)</f>
+        <v>1</v>
       </c>
       <c r="E42" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>ABS($E$33-E12)</f>
+        <v>1</v>
       </c>
       <c r="F42" s="3">
-        <f t="shared" si="3"/>
+        <f>1/SUM(C42:E42)</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A43" s="2"/>
       <c r="B43" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C43" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>ABS($D$33-D13)</f>
+        <v>0</v>
       </c>
       <c r="E43" s="1">
-        <f t="shared" si="2"/>
+        <f>ABS($E$33-E13)</f>
         <v>1</v>
       </c>
       <c r="F43" s="3">
-        <f t="shared" si="3"/>
+        <f>1/SUM(C43:E43)</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2"/>
       <c r="B44" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C44" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>ABS($D$33-D14)</f>
+        <v>1</v>
       </c>
       <c r="E44" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>ABS($E$33-E14)</f>
+        <v>0</v>
       </c>
       <c r="F44" s="3">
-        <f t="shared" si="3"/>
+        <f>1/SUM(C44:E44)</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2"/>
       <c r="B45" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C45" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>ABS($D$33-D15)</f>
+        <v>2</v>
       </c>
       <c r="E45" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>ABS($E$33-E15)</f>
+        <v>1</v>
       </c>
       <c r="F45" s="3">
-        <f t="shared" si="3"/>
+        <f>1/SUM(C45:E45)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D46" s="1">
+        <f>ABS($D$33-D16)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
+        <f>ABS($E$33-E16)</f>
+        <v>1</v>
+      </c>
+      <c r="F46" s="3">
+        <f>1/SUM(C46:E46)</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="2"/>
-      <c r="B46" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C46" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D46" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E46" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F46" s="3">
-        <f t="shared" si="3"/>
-        <v>0.25</v>
-      </c>
-    </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A47" s="2"/>
       <c r="B47" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C47" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>ABS($D$33-D17)</f>
+        <v>1</v>
       </c>
       <c r="E47" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>ABS($E$33-E17)</f>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
-        <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
+        <f>1/SUM(C47:E47)</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2"/>
       <c r="B48" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C48" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" si="1"/>
+        <f>ABS($D$33-D18)</f>
         <v>1</v>
       </c>
       <c r="E48" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>ABS($E$33-E18)</f>
+        <v>1</v>
       </c>
       <c r="F48" s="3">
-        <f t="shared" si="3"/>
+        <f>1/SUM(C48:E48)</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:7">
       <c r="A49" s="2"/>
       <c r="B49" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C49" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>ABS($D$33-D19)</f>
+        <v>2</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>ABS($E$33-E19)</f>
+        <v>0</v>
       </c>
       <c r="F49" s="3">
-        <f t="shared" si="3"/>
+        <f>1/SUM(C49:E49)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D50" s="1">
+        <f>ABS($D$33-D20)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <f>ABS($E$33-E20)</f>
+        <v>0</v>
+      </c>
+      <c r="F50" s="3">
+        <f>1/SUM(C50:E50)</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="2"/>
-      <c r="B50" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C50" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D50" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E50" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F50" s="3">
-        <f t="shared" si="3"/>
+    <row r="51" spans="1:7">
+      <c r="A51" s="2"/>
+      <c r="B51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D51" s="1">
+        <f>ABS($D$33-D21)</f>
+        <v>2</v>
+      </c>
+      <c r="E51" s="1">
+        <f>ABS($E$33-E21)</f>
+        <v>1</v>
+      </c>
+      <c r="F51" s="3">
+        <f>1/SUM(C51:E51)</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C51" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D51" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E51" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F51" s="3">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:7">
       <c r="A52" s="2"/>
       <c r="B52" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C52" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D52" s="1">
-        <f t="shared" si="1"/>
+        <f>ABS($D$33-D22)</f>
         <v>2</v>
       </c>
       <c r="E52" s="1">
-        <f t="shared" si="2"/>
+        <f>ABS($E$33-E22)</f>
         <v>1</v>
       </c>
       <c r="F52" s="3">
-        <f t="shared" si="3"/>
+        <f>1/SUM(C52:E52)</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="2"/>
+    <row r="53" spans="1:7">
+      <c r="A53" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="B53" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C53" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>ABS($D$33-D23)</f>
+        <v>0</v>
       </c>
       <c r="E53" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" s="3">
-        <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="2" t="s">
-        <v>11</v>
-      </c>
+        <f>1/SUM(C53:E53)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="2"/>
       <c r="B54" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C54" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>ABS($D$33-D24)</f>
+        <v>1</v>
       </c>
       <c r="E54" s="1">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F54" s="3">
-        <f t="shared" si="3"/>
+        <f>1/SUM(C54:E54)</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:7">
       <c r="A55" s="2"/>
       <c r="B55" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C55" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D55" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>ABS($D$33-D25)</f>
+        <v>2</v>
       </c>
       <c r="E55" s="1">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F55" s="3">
-        <f t="shared" si="3"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <f>1/SUM(C55:E55)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="2"/>
       <c r="B56" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C56" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56" s="1">
+        <f>ABS($D$33-D26)</f>
+        <v>3</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="3">
+        <f>1/SUM(C56:E56)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="1">
+        <f>C27</f>
+        <v>3</v>
+      </c>
+      <c r="D57" s="1">
+        <f>D27</f>
+        <v>3</v>
+      </c>
+      <c r="E57" s="1">
+        <f>E27</f>
+        <v>3</v>
+      </c>
+      <c r="F57" s="1">
+        <f>SUM(C57:E57)</f>
+        <v>9</v>
+      </c>
+      <c r="G57" s="3">
+        <f>F57/SUM($F$57:$F$62)</f>
+        <v>0.28125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="2"/>
+      <c r="B58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" ref="C58:E62" si="1">C28</f>
+        <v>2</v>
+      </c>
+      <c r="D58" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E56" s="1">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F56" s="3">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="2"/>
-      <c r="B57" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C57" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+      <c r="E58" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E57" s="1">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F57" s="3">
-        <f t="shared" si="3"/>
-        <v>0.14285714285714285</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="1">
-        <f>C28</f>
-        <v>3</v>
-      </c>
-      <c r="D58" s="1">
-        <f>D28</f>
-        <v>3</v>
-      </c>
-      <c r="E58" s="1">
-        <f t="shared" ref="E58:E63" si="4">SUM(C58:D58)</f>
-        <v>6</v>
-      </c>
-      <c r="F58" s="3">
-        <f t="shared" ref="F58:F63" si="5">E58/SUM($E$58:$E$63)</f>
-        <v>0.27272727272727271</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" ref="F58:F62" si="2">SUM(C58:E58)</f>
+        <v>4</v>
+      </c>
+      <c r="G58" s="3">
+        <f>F58/SUM($F$57:$F$62)</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="2"/>
       <c r="B59" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" s="1">
-        <f t="shared" ref="C59:D63" si="6">C29</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="D59" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E59" s="1">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="F59" s="3">
-        <f t="shared" si="5"/>
-        <v>0.13636363636363635</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G59" s="3">
+        <f>F59/SUM($F$57:$F$62)</f>
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="2"/>
       <c r="B60" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" s="1">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E60" s="1">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="F60" s="3">
-        <f t="shared" si="5"/>
-        <v>0.13636363636363635</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G60" s="3">
+        <f>F60/SUM($F$57:$F$62)</f>
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="2"/>
       <c r="B61" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C61" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="D61" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="E61" s="1">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="F61" s="3">
-        <f t="shared" si="5"/>
-        <v>9.0909090909090912E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G61" s="3">
+        <f>F61/SUM($F$57:$F$62)</f>
+        <v>0.21875</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="2"/>
       <c r="B62" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C62" s="1">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="E62" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="F62" s="3">
-        <f t="shared" si="5"/>
-        <v>0.22727272727272727</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="2"/>
-      <c r="B63" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C63" s="1">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="D63" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="E63" s="1">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="F63" s="3">
-        <f t="shared" si="5"/>
-        <v>0.13636363636363635</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="F64" s="1">
-        <f>SUM(F58:F63)</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G62" s="3">
+        <f>F62/SUM($F$57:$F$62)</f>
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="G63" s="1">
+        <f>SUM(G57:G62)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="A57:A62"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A26"/>
     <mergeCell ref="C2:E2"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A50:A52"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Preference profiles/Preference matrix.xlsx
+++ b/Preference profiles/Preference matrix.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
   </bookViews>
@@ -136,7 +136,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -163,6 +163,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -231,11 +238,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -612,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -627,18 +634,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
@@ -655,7 +662,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -672,7 +679,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -680,14 +687,14 @@
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -702,7 +709,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -710,14 +717,14 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -734,7 +741,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
@@ -749,7 +756,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
@@ -764,7 +771,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
@@ -779,7 +786,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -796,7 +803,7 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
@@ -811,7 +818,7 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="2"/>
+      <c r="A14" s="3"/>
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
@@ -826,7 +833,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="2"/>
+      <c r="A15" s="3"/>
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
@@ -841,7 +848,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -858,7 +865,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="2"/>
+      <c r="A17" s="3"/>
       <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
@@ -873,7 +880,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="2"/>
+      <c r="A18" s="3"/>
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
@@ -888,7 +895,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="2"/>
+      <c r="A19" s="3"/>
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
@@ -903,7 +910,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -920,7 +927,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="2"/>
+      <c r="A21" s="3"/>
       <c r="B21" s="1" t="s">
         <v>25</v>
       </c>
@@ -935,7 +942,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="2"/>
+      <c r="A22" s="3"/>
       <c r="B22" s="1" t="s">
         <v>36</v>
       </c>
@@ -950,7 +957,7 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -964,7 +971,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="2"/>
+      <c r="A24" s="3"/>
       <c r="B24" s="1" t="s">
         <v>26</v>
       </c>
@@ -976,7 +983,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="2"/>
+      <c r="A25" s="3"/>
       <c r="B25" s="1" t="s">
         <v>27</v>
       </c>
@@ -988,7 +995,7 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="2"/>
+      <c r="A26" s="3"/>
       <c r="B26" s="1" t="s">
         <v>28</v>
       </c>
@@ -1000,7 +1007,7 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1017,7 +1024,7 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="2"/>
+      <c r="A28" s="3"/>
       <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,7 +1039,7 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="2"/>
+      <c r="A29" s="3"/>
       <c r="B29" s="1" t="s">
         <v>8</v>
       </c>
@@ -1047,7 +1054,7 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="2"/>
+      <c r="A30" s="3"/>
       <c r="B30" s="1" t="s">
         <v>9</v>
       </c>
@@ -1062,7 +1069,7 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="2"/>
+      <c r="A31" s="3"/>
       <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
@@ -1077,7 +1084,7 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="2"/>
+      <c r="A32" s="3"/>
       <c r="B32" s="1" t="s">
         <v>11</v>
       </c>
@@ -1106,7 +1113,7 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -1117,20 +1124,20 @@
         <v>2</v>
       </c>
       <c r="D34" s="1">
-        <f>ABS($D$33-D4)</f>
+        <f t="shared" ref="D34:D56" si="1">ABS($D$33-D4)</f>
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <f>ABS($E$33-E4)</f>
-        <v>1</v>
-      </c>
-      <c r="F34" s="3">
-        <f>1/SUM(C34:E34)</f>
+        <f t="shared" ref="E34:E52" si="2">ABS($E$33-E4)</f>
+        <v>1</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" ref="F34:F56" si="3">1/SUM(C34:E34)</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="2"/>
+      <c r="A35" s="3"/>
       <c r="B35" s="1" t="s">
         <v>1</v>
       </c>
@@ -1139,20 +1146,20 @@
         <v>2</v>
       </c>
       <c r="D35" s="1">
-        <f>ABS($D$33-D5)</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E35" s="1">
-        <f>ABS($E$33-E5)</f>
-        <v>1</v>
-      </c>
-      <c r="F35" s="3">
-        <f>1/SUM(C35:E35)</f>
-        <v>0.2</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="2"/>
+      <c r="A36" s="3"/>
       <c r="B36" s="1" t="s">
         <v>2</v>
       </c>
@@ -1161,20 +1168,20 @@
         <v>0</v>
       </c>
       <c r="D36" s="1">
-        <f>ABS($D$33-D6)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E36" s="1">
-        <f>ABS($E$33-E6)</f>
-        <v>1</v>
-      </c>
-      <c r="F36" s="3">
-        <f>1/SUM(C36:E36)</f>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="2"/>
+      <c r="A37" s="3"/>
       <c r="B37" s="1" t="s">
         <v>3</v>
       </c>
@@ -1183,20 +1190,20 @@
         <v>1</v>
       </c>
       <c r="D37" s="1">
-        <f>ABS($D$33-D7)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="E37" s="1">
-        <f>ABS($E$33-E7)</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="3">
-        <f>1/SUM(C37:E37)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1207,20 +1214,20 @@
         <v>2</v>
       </c>
       <c r="D38" s="1">
-        <f>ABS($D$33-D8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <f>ABS($E$33-E8)</f>
-        <v>0</v>
-      </c>
-      <c r="F38" s="3">
-        <f>1/SUM(C38:E38)</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="2"/>
+      <c r="A39" s="3"/>
       <c r="B39" s="1" t="s">
         <v>13</v>
       </c>
@@ -1229,20 +1236,20 @@
         <v>2</v>
       </c>
       <c r="D39" s="1">
-        <f>ABS($D$33-D9)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E39" s="1">
-        <f>ABS($E$33-E9)</f>
-        <v>1</v>
-      </c>
-      <c r="F39" s="3">
-        <f>1/SUM(C39:E39)</f>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="2"/>
+      <c r="A40" s="3"/>
       <c r="B40" s="1" t="s">
         <v>14</v>
       </c>
@@ -1251,20 +1258,20 @@
         <v>0</v>
       </c>
       <c r="D40" s="1">
-        <f>ABS($D$33-D10)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E40" s="1">
-        <f>ABS($E$33-E10)</f>
-        <v>1</v>
-      </c>
-      <c r="F40" s="3">
-        <f>1/SUM(C40:E40)</f>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="2"/>
+      <c r="A41" s="3"/>
       <c r="B41" s="1" t="s">
         <v>3</v>
       </c>
@@ -1273,20 +1280,20 @@
         <v>1</v>
       </c>
       <c r="D41" s="1">
-        <f>ABS($D$33-D11)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E41" s="1">
-        <f>ABS($E$33-E11)</f>
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <f>1/SUM(C41:E41)</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -1297,20 +1304,20 @@
         <v>1</v>
       </c>
       <c r="D42" s="1">
-        <f>ABS($D$33-D12)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E42" s="1">
-        <f>ABS($E$33-E12)</f>
-        <v>1</v>
-      </c>
-      <c r="F42" s="3">
-        <f>1/SUM(C42:E42)</f>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="2"/>
+      <c r="A43" s="3"/>
       <c r="B43" s="1" t="s">
         <v>16</v>
       </c>
@@ -1319,20 +1326,20 @@
         <v>2</v>
       </c>
       <c r="D43" s="1">
-        <f>ABS($D$33-D13)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <f>ABS($E$33-E13)</f>
-        <v>1</v>
-      </c>
-      <c r="F43" s="3">
-        <f>1/SUM(C43:E43)</f>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F43" s="2">
+        <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="2"/>
+      <c r="A44" s="3"/>
       <c r="B44" s="1" t="s">
         <v>17</v>
       </c>
@@ -1341,20 +1348,20 @@
         <v>2</v>
       </c>
       <c r="D44" s="1">
-        <f>ABS($D$33-D14)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E44" s="1">
-        <f>ABS($E$33-E14)</f>
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <f>1/SUM(C44:E44)</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
+        <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="2"/>
+      <c r="A45" s="3"/>
       <c r="B45" s="1" t="s">
         <v>18</v>
       </c>
@@ -1363,20 +1370,20 @@
         <v>1</v>
       </c>
       <c r="D45" s="1">
-        <f>ABS($D$33-D15)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E45" s="1">
-        <f>ABS($E$33-E15)</f>
-        <v>1</v>
-      </c>
-      <c r="F45" s="3">
-        <f>1/SUM(C45:E45)</f>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F45" s="2">
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -1387,20 +1394,20 @@
         <v>2</v>
       </c>
       <c r="D46" s="1">
-        <f>ABS($D$33-D16)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <f>ABS($E$33-E16)</f>
-        <v>1</v>
-      </c>
-      <c r="F46" s="3">
-        <f>1/SUM(C46:E46)</f>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F46" s="2">
+        <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="2"/>
+      <c r="A47" s="3"/>
       <c r="B47" s="1" t="s">
         <v>19</v>
       </c>
@@ -1409,20 +1416,20 @@
         <v>1</v>
       </c>
       <c r="D47" s="1">
-        <f>ABS($D$33-D17)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E47" s="1">
-        <f>ABS($E$33-E17)</f>
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <f>1/SUM(C47:E47)</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="2"/>
+      <c r="A48" s="3"/>
       <c r="B48" s="1" t="s">
         <v>20</v>
       </c>
@@ -1431,20 +1438,20 @@
         <v>0</v>
       </c>
       <c r="D48" s="1">
-        <f>ABS($D$33-D18)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E48" s="1">
-        <f>ABS($E$33-E18)</f>
-        <v>1</v>
-      </c>
-      <c r="F48" s="3">
-        <f>1/SUM(C48:E48)</f>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F48" s="2">
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="2"/>
+      <c r="A49" s="3"/>
       <c r="B49" s="1" t="s">
         <v>21</v>
       </c>
@@ -1453,20 +1460,20 @@
         <v>1</v>
       </c>
       <c r="D49" s="1">
-        <f>ABS($D$33-D19)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E49" s="1">
-        <f>ABS($E$33-E19)</f>
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <f>1/SUM(C49:E49)</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F49" s="2">
+        <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -1477,20 +1484,20 @@
         <v>2</v>
       </c>
       <c r="D50" s="1">
-        <f>ABS($D$33-D20)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E50" s="1">
-        <f>ABS($E$33-E20)</f>
-        <v>0</v>
-      </c>
-      <c r="F50" s="3">
-        <f>1/SUM(C50:E50)</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F50" s="2">
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="2"/>
+      <c r="A51" s="3"/>
       <c r="B51" s="1" t="s">
         <v>25</v>
       </c>
@@ -1499,20 +1506,20 @@
         <v>0</v>
       </c>
       <c r="D51" s="1">
-        <f>ABS($D$33-D21)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E51" s="1">
-        <f>ABS($E$33-E21)</f>
-        <v>1</v>
-      </c>
-      <c r="F51" s="3">
-        <f>1/SUM(C51:E51)</f>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F51" s="2">
+        <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="2"/>
+      <c r="A52" s="3"/>
       <c r="B52" s="1" t="s">
         <v>10</v>
       </c>
@@ -1521,20 +1528,20 @@
         <v>0</v>
       </c>
       <c r="D52" s="1">
-        <f>ABS($D$33-D22)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E52" s="1">
-        <f>ABS($E$33-E22)</f>
-        <v>1</v>
-      </c>
-      <c r="F52" s="3">
-        <f>1/SUM(C52:E52)</f>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F52" s="2">
+        <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -1545,19 +1552,19 @@
         <v>1</v>
       </c>
       <c r="D53" s="1">
-        <f>ABS($D$33-D23)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E53" s="1">
         <v>0</v>
       </c>
-      <c r="F53" s="3">
-        <f>1/SUM(C53:E53)</f>
+      <c r="F53" s="2">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="2"/>
+      <c r="A54" s="3"/>
       <c r="B54" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,19 +1573,19 @@
         <v>1</v>
       </c>
       <c r="D54" s="1">
-        <f>ABS($D$33-D24)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E54" s="1">
         <v>0</v>
       </c>
-      <c r="F54" s="3">
-        <f>1/SUM(C54:E54)</f>
+      <c r="F54" s="2">
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="2"/>
+      <c r="A55" s="3"/>
       <c r="B55" s="1" t="s">
         <v>27</v>
       </c>
@@ -1587,19 +1594,19 @@
         <v>1</v>
       </c>
       <c r="D55" s="1">
-        <f>ABS($D$33-D25)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E55" s="1">
         <v>0</v>
       </c>
-      <c r="F55" s="3">
-        <f>1/SUM(C55:E55)</f>
+      <c r="F55" s="2">
+        <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="2"/>
+      <c r="A56" s="3"/>
       <c r="B56" s="1" t="s">
         <v>28</v>
       </c>
@@ -1608,19 +1615,19 @@
         <v>2</v>
       </c>
       <c r="D56" s="1">
-        <f>ABS($D$33-D26)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E56" s="1">
         <v>0</v>
       </c>
-      <c r="F56" s="3">
-        <f>1/SUM(C56:E56)</f>
+      <c r="F56" s="2">
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -1642,138 +1649,138 @@
         <f>SUM(C57:E57)</f>
         <v>9</v>
       </c>
-      <c r="G57" s="3">
-        <f>F57/SUM($F$57:$F$62)</f>
+      <c r="G57" s="2">
+        <f t="shared" ref="G57:G62" si="4">F57/SUM($F$57:$F$62)</f>
         <v>0.28125</v>
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="2"/>
+      <c r="A58" s="3"/>
       <c r="B58" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C58" s="1">
-        <f t="shared" ref="C58:E62" si="1">C28</f>
+        <f t="shared" ref="C58:E62" si="5">C28</f>
         <v>2</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E58" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F58" s="1">
-        <f t="shared" ref="F58:F62" si="2">SUM(C58:E58)</f>
+        <f t="shared" ref="F58:F62" si="6">SUM(C58:E58)</f>
         <v>4</v>
       </c>
-      <c r="G58" s="3">
-        <f>F58/SUM($F$57:$F$62)</f>
+      <c r="G58" s="2">
+        <f t="shared" si="4"/>
         <v>0.125</v>
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="2"/>
+      <c r="A59" s="3"/>
       <c r="B59" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="D59" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E59" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="F59" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="G59" s="3">
-        <f>F59/SUM($F$57:$F$62)</f>
+      <c r="G59" s="2">
+        <f t="shared" si="4"/>
         <v>0.1875</v>
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="2"/>
+      <c r="A60" s="3"/>
       <c r="B60" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C60" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E60" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F60" s="1">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G60" s="3">
-        <f>F60/SUM($F$57:$F$62)</f>
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G60" s="2">
+        <f t="shared" si="4"/>
         <v>9.375E-2</v>
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="2"/>
+      <c r="A61" s="3"/>
       <c r="B61" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C61" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="D61" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E61" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F61" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="G61" s="3">
-        <f>F61/SUM($F$57:$F$62)</f>
+      <c r="G61" s="2">
+        <f t="shared" si="4"/>
         <v>0.21875</v>
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="2"/>
+      <c r="A62" s="3"/>
       <c r="B62" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C62" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E62" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F62" s="1">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G62" s="3">
-        <f>F62/SUM($F$57:$F$62)</f>
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G62" s="2">
+        <f t="shared" si="4"/>
         <v>9.375E-2</v>
       </c>
     </row>
@@ -1794,16 +1801,23 @@
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A50:A52"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A50:A52"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" scale="67" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="63" max="16383" man="1"/>
+  </rowBreaks>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="7" max="1048575" man="1"/>
+  </colBreaks>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
